--- a/biology/Zoologie/Bois_du_Petit-Château/Bois_du_Petit-Château.xlsx
+++ b/biology/Zoologie/Bois_du_Petit-Château/Bois_du_Petit-Château.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_du_Petit-Ch%C3%A2teau</t>
+          <t>Bois_du_Petit-Château</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Bois du Petit-Château est un parc zoologique suisse, situé à La Chaux-de-Fonds dans le canton de Neuchâtel. Il a été créé le 7 septembre 1891[1],[2]. Il est géré par l'administration du Musée d'Histoire naturelle de la ville de La Chaux-de-Fonds, aujourd'hui appelé "MUZOO"[3],[4].
+Le Bois du Petit-Château est un parc zoologique suisse, situé à La Chaux-de-Fonds dans le canton de Neuchâtel. Il a été créé le 7 septembre 1891,. Il est géré par l'administration du Musée d'Histoire naturelle de la ville de La Chaux-de-Fonds, aujourd'hui appelé "MUZOO",.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_du_Petit-Ch%C3%A2teau</t>
+          <t>Bois_du_Petit-Château</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accès au parc zoologique est entièrement gratuit.
-En décembre 2022 est inauguré le Muzoo, fusion entre le Bois du Petit-Château et le Musée d'histoire naturelle[3],[5].
+En décembre 2022 est inauguré le Muzoo, fusion entre le Bois du Petit-Château et le Musée d'histoire naturelle,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_du_Petit-Ch%C3%A2teau</t>
+          <t>Bois_du_Petit-Château</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le zoo du Bois du Petit-Château comporte près de 240 animaux dont 80 mammifères. Le parc abrite un espace pour les ours et les lynx. On peut y apercevoir des renards, des ratons laveurs, des cerfs, des bouquetins, des sangliers et autres béliers.
 On y trouve également 150 oiseaux de 25 espèces différentes, du canard au grand tétras, des chouettes hulottes, le hibou grand-duc ou le paon.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_du_Petit-Ch%C3%A2teau</t>
+          <t>Bois_du_Petit-Château</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le zoo du Bois du Petit-Château s'engage à suivre les missions de l'Association européenne des zoos et aquariums (EAZA), qui a pour rôle d'encourager la coopération entre les parcs européens, pour favoriser les échanges et la circulation d'informations visant à protéger la faune captive et sauvage.
 Les missions sont les suivantes : le divertissement, la conservation d’espèces menacées, l'éducation à l'environnement et la recherche scientifique.
